--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E470"/>
+  <dimension ref="A1:E480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10037,6 +10037,212 @@
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>333.3433333333333</v>
+      </c>
+      <c r="C471" t="n">
+        <v>324.7792307692308</v>
+      </c>
+      <c r="D471" t="n">
+        <v>372.09</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>332.4533333333333</v>
+      </c>
+      <c r="C472" t="n">
+        <v>326.6623076923077</v>
+      </c>
+      <c r="D472" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>327.2066666666667</v>
+      </c>
+      <c r="C473" t="n">
+        <v>322.3184615384615</v>
+      </c>
+      <c r="D473" t="n">
+        <v>364.46</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>334.3066666666667</v>
+      </c>
+      <c r="C474" t="n">
+        <v>316.3030769230769</v>
+      </c>
+      <c r="D474" t="n">
+        <v>354.48</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>332.42</v>
+      </c>
+      <c r="C475" t="n">
+        <v>322.7030769230769</v>
+      </c>
+      <c r="D475" t="n">
+        <v>331.77</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>342.8433333333333</v>
+      </c>
+      <c r="C476" t="n">
+        <v>333.71</v>
+      </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>344.2033333333333</v>
+      </c>
+      <c r="C477" t="n">
+        <v>330.3661538461538</v>
+      </c>
+      <c r="D477" t="n">
+        <v>350.05</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>333.7933333333333</v>
+      </c>
+      <c r="C478" t="n">
+        <v>328.1353846153846</v>
+      </c>
+      <c r="D478" t="n">
+        <v>351.92</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>336.7033333333333</v>
+      </c>
+      <c r="C479" t="n">
+        <v>325.2553846153846</v>
+      </c>
+      <c r="D479" t="n">
+        <v>367.34</v>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>345.0033333333333</v>
+      </c>
+      <c r="C480" t="n">
+        <v>332.6976923076923</v>
+      </c>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10053,7 +10259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15671,6 +15877,116 @@
       </c>
       <c r="B561" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -15839,28 +16155,28 @@
         <v>0.0663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3386080645511373</v>
+        <v>0.3606361325551848</v>
       </c>
       <c r="J2" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="K2" t="n">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04288101173968784</v>
+        <v>0.05040066044744562</v>
       </c>
       <c r="M2" t="n">
-        <v>9.294614734556434</v>
+        <v>9.200919180968508</v>
       </c>
       <c r="N2" t="n">
-        <v>140.0532923146705</v>
+        <v>137.9698551600406</v>
       </c>
       <c r="O2" t="n">
-        <v>11.8344113632521</v>
+        <v>11.74605700480125</v>
       </c>
       <c r="P2" t="n">
-        <v>322.8279141715946</v>
+        <v>322.620657087813</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -15916,28 +16232,28 @@
         <v>0.0699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.255029628777891</v>
+        <v>0.2755057841041733</v>
       </c>
       <c r="J3" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="K3" t="n">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0310961570321926</v>
+        <v>0.0373706732816782</v>
       </c>
       <c r="M3" t="n">
-        <v>8.211066258037921</v>
+        <v>8.15905811617418</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7966631593579</v>
+        <v>110.3502129809822</v>
       </c>
       <c r="O3" t="n">
-        <v>10.57339411728126</v>
+        <v>10.50477096280458</v>
       </c>
       <c r="P3" t="n">
-        <v>314.8901123121392</v>
+        <v>314.6935285592877</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -15993,28 +16309,28 @@
         <v>0.021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5072663699211605</v>
+        <v>0.5103894721944338</v>
       </c>
       <c r="J4" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="K4" t="n">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03760144595014481</v>
+        <v>0.03911540958598991</v>
       </c>
       <c r="M4" t="n">
-        <v>15.13869993512968</v>
+        <v>15.07020754152368</v>
       </c>
       <c r="N4" t="n">
-        <v>361.311997055814</v>
+        <v>358.062745048054</v>
       </c>
       <c r="O4" t="n">
-        <v>19.00820867561733</v>
+        <v>18.92254594519601</v>
       </c>
       <c r="P4" t="n">
-        <v>344.7793360430361</v>
+        <v>344.7499596076955</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16051,7 +16367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E470"/>
+  <dimension ref="A1:E480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28209,6 +28525,268 @@
         </is>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-34.966438100420014,173.6530057946286</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-34.9666008430835,173.65388737225226</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-34.96626297301629,173.654837996364</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-34.9664460743952,173.6530046947291</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-34.96658397160458,173.65388969932496</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-34.96622166956918,173.65484369297727</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-34.966493082023796,173.6529982106733</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-34.96662289041224,173.65388433127637</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-34.96633133425201,173.65482856790112</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-34.96642946941315,173.65300698515628</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-34.966676785413455,173.65387689756213</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-34.96642075038794,173.65481623549883</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-34.96644637304595,173.65300465353437</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-34.966619444440255,173.6538848065775</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-34.966624221366175,173.6547881723932</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-34.96635298495348,173.65301753511636</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-34.966520827612925,173.65389840872882</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-34.96634080000232,173.65301921585797</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-34.96655078689398,173.65389427646903</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-34.96646044111689,173.65481076128813</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-34.96643406863481,173.6530063507575</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-34.96657077353177,173.65389151972641</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-34.96644368679118,173.65481307207293</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-34.966407996423676,173.65300994705638</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-34.96659657697017,173.65388796067472</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-34.966305530797534,173.654832126746</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-34.96633363238397,173.6530202045293</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-34.966529897411405,173.65389715773904</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -16000,7 +16000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16091,35 +16091,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16178,27 +16183,28 @@
       <c r="P2" t="n">
         <v>322.620657087813</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.65259382085029 -34.96942469631203, 173.65373889341194 -34.96112300391849)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.6525938208503</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.96942469631203</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.6537388934119</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.96112300391849</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.6531663571311</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.96527385011526</v>
       </c>
     </row>
@@ -16255,27 +16261,28 @@
       <c r="P3" t="n">
         <v>314.6935285592877</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.6534860024582 -34.96951071022886, 173.65463101730697 -34.96120901628979)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.6534860024582</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.96951071022886</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.654631017307</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.96120901628979</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.6540585098826</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.96535986325932</v>
       </c>
     </row>
@@ -16332,27 +16339,28 @@
       <c r="P4" t="n">
         <v>344.7499596076955</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.65437818406633 -34.969596724054945, 173.65552314120166 -34.96129502857164)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.6543781840663</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.96959672405495</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.6555231412017</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.96129502857164</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.654950662634</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.9654458763133</v>
       </c>
     </row>

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E480"/>
+  <dimension ref="A1:E484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10243,6 +10243,90 @@
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>347.54</v>
+      </c>
+      <c r="C481" t="n">
+        <v>339.3823076923077</v>
+      </c>
+      <c r="D481" t="n">
+        <v>371.94</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>332.1333333333333</v>
+      </c>
+      <c r="C482" t="n">
+        <v>325.3792307692308</v>
+      </c>
+      <c r="D482" t="n">
+        <v>342.13</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>312.54</v>
+      </c>
+      <c r="C483" t="n">
+        <v>308.2023076923077</v>
+      </c>
+      <c r="D483" t="n">
+        <v>320.97</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>321.57</v>
+      </c>
+      <c r="C484" t="n">
+        <v>316.7523076923077</v>
+      </c>
+      <c r="D484" t="n">
+        <v>342.11</v>
+      </c>
+      <c r="E484" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10259,7 +10343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B572"/>
+  <dimension ref="A1:B577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15987,6 +16071,56 @@
       </c>
       <c r="B572" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -16160,28 +16294,28 @@
         <v>0.0663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3606361325551848</v>
+        <v>0.3542617452034165</v>
       </c>
       <c r="J2" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K2" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05040066044744562</v>
+        <v>0.04910078154335407</v>
       </c>
       <c r="M2" t="n">
-        <v>9.200919180968508</v>
+        <v>9.223128933214504</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9698551600406</v>
+        <v>138.3792833157068</v>
       </c>
       <c r="O2" t="n">
-        <v>11.74605700480125</v>
+        <v>11.76347241743299</v>
       </c>
       <c r="P2" t="n">
-        <v>322.620657087813</v>
+        <v>322.681701960766</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16238,28 +16372,28 @@
         <v>0.0699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2755057841041733</v>
+        <v>0.2765264221918416</v>
       </c>
       <c r="J3" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K3" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0373706732816782</v>
+        <v>0.03790054441024737</v>
       </c>
       <c r="M3" t="n">
-        <v>8.15905811617418</v>
+        <v>8.175062037260208</v>
       </c>
       <c r="N3" t="n">
-        <v>110.3502129809822</v>
+        <v>110.5541817911253</v>
       </c>
       <c r="O3" t="n">
-        <v>10.50477096280458</v>
+        <v>10.51447486996499</v>
       </c>
       <c r="P3" t="n">
-        <v>314.6935285592877</v>
+        <v>314.6839050247669</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16316,28 +16450,28 @@
         <v>0.021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5103894721944338</v>
+        <v>0.4865993309714274</v>
       </c>
       <c r="J4" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03911540958598991</v>
+        <v>0.03589110446267496</v>
       </c>
       <c r="M4" t="n">
-        <v>15.07020754152368</v>
+        <v>15.13651375567458</v>
       </c>
       <c r="N4" t="n">
-        <v>358.062745048054</v>
+        <v>359.4486897198072</v>
       </c>
       <c r="O4" t="n">
-        <v>18.92254594519601</v>
+        <v>18.9591320929996</v>
       </c>
       <c r="P4" t="n">
-        <v>344.7499596076955</v>
+        <v>344.9812646695361</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16375,7 +16509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E480"/>
+  <dimension ref="A1:E484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28795,6 +28929,114 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-34.96631090506068,173.65302333944024</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-34.96647000641645,173.65390541844943</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-34.96626431694625,173.65483781100772</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-34.96644894144245,173.65300429925958</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-34.966595467367185,173.6538881137216</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-34.96653140061314,173.654800974425</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-34.966624488352004,173.6529800849403</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-34.96674936447325,173.65386688674906</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-34.96672098431075,173.65477482661677</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-34.96654358386551,173.652991244631</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-34.96667276051824,173.6538774527145</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-34.96653157980378,173.65480094971068</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10327,6 +10327,109 @@
         <v>342.11</v>
       </c>
       <c r="E484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="n">
+        <v>317.7169230769231</v>
+      </c>
+      <c r="D485" t="n">
+        <v>379.02</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>311.7966666666667</v>
+      </c>
+      <c r="C486" t="n">
+        <v>309.6515384615385</v>
+      </c>
+      <c r="D486" t="n">
+        <v>329.42</v>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>323.2</v>
+      </c>
+      <c r="C487" t="n">
+        <v>321.1607692307692</v>
+      </c>
+      <c r="D487" t="n">
+        <v>363.02</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>325.77</v>
+      </c>
+      <c r="C488" t="n">
+        <v>323.7023076923077</v>
+      </c>
+      <c r="D488" t="n">
+        <v>374.6</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>290.0966666666667</v>
+      </c>
+      <c r="C489" t="n">
+        <v>308.6769230769231</v>
+      </c>
+      <c r="D489" t="n">
+        <v>352.16</v>
+      </c>
+      <c r="E489" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10343,7 +10446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B577"/>
+  <dimension ref="A1:B582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16121,6 +16224,56 @@
       </c>
       <c r="B577" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -16294,28 +16447,28 @@
         <v>0.0663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3542617452034165</v>
+        <v>0.3200389181537062</v>
       </c>
       <c r="J2" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K2" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04910078154335407</v>
+        <v>0.03979183140489662</v>
       </c>
       <c r="M2" t="n">
-        <v>9.223128933214504</v>
+        <v>9.323531416555111</v>
       </c>
       <c r="N2" t="n">
-        <v>138.3792833157068</v>
+        <v>142.2450644375871</v>
       </c>
       <c r="O2" t="n">
-        <v>11.76347241743299</v>
+        <v>11.92665353054188</v>
       </c>
       <c r="P2" t="n">
-        <v>322.681701960766</v>
+        <v>323.009192784268</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16372,28 +16525,28 @@
         <v>0.0699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2765264221918416</v>
+        <v>0.2650933305515847</v>
       </c>
       <c r="J3" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K3" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03790054441024737</v>
+        <v>0.035456521983807</v>
       </c>
       <c r="M3" t="n">
-        <v>8.175062037260208</v>
+        <v>8.154351918269196</v>
       </c>
       <c r="N3" t="n">
-        <v>110.5541817911253</v>
+        <v>110.0791110568661</v>
       </c>
       <c r="O3" t="n">
-        <v>10.51447486996499</v>
+        <v>10.4918592754986</v>
       </c>
       <c r="P3" t="n">
-        <v>314.6839050247669</v>
+        <v>314.7956511320738</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16450,28 +16603,28 @@
         <v>0.021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4865993309714274</v>
+        <v>0.4910526160694736</v>
       </c>
       <c r="J4" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K4" t="n">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03589110446267496</v>
+        <v>0.03699416561556379</v>
       </c>
       <c r="M4" t="n">
-        <v>15.13651375567458</v>
+        <v>15.13750268614647</v>
       </c>
       <c r="N4" t="n">
-        <v>359.4486897198072</v>
+        <v>359.0060975854747</v>
       </c>
       <c r="O4" t="n">
-        <v>18.9591320929996</v>
+        <v>18.94745622993954</v>
       </c>
       <c r="P4" t="n">
-        <v>344.9812646695361</v>
+        <v>344.9379085604667</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16509,7 +16662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E484"/>
+  <dimension ref="A1:E489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29037,6 +29190,137 @@
         </is>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:48+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr"/>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-34.96666411802065,173.65387864477097</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-34.96620088345244,173.6548465598175</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-34.96663114826351,173.65297916629376</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-34.966736380051294,173.65386867768865</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-34.96664527626637,173.65478526845362</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-34.96652897984394,173.65299325905804</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-34.96663326278786,173.65388290061983</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-34.96634423597918,173.6548267884779</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-34.966505953871156,173.65299643517778</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-34.966610491805056,173.6538860414096</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-34.966240484588525,173.6548410979914</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-34.966825569889764,173.6529523483438</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-34.966745112143975,173.65386747327233</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-34.96644153650339,173.6548133686442</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E489"/>
+  <dimension ref="A1:E490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10430,6 +10430,25 @@
         <v>352.16</v>
       </c>
       <c r="E489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="n">
+        <v>305.4061538461539</v>
+      </c>
+      <c r="D490" t="n">
+        <v>366.48</v>
+      </c>
+      <c r="E490" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10446,7 +10465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B582"/>
+  <dimension ref="A1:B583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16274,6 +16293,16 @@
       </c>
       <c r="B582" t="n">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -16450,7 +16479,7 @@
         <v>0.3200389181537062</v>
       </c>
       <c r="J2" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K2" t="n">
         <v>429</v>
@@ -16525,28 +16554,28 @@
         <v>0.0699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2650933305515847</v>
+        <v>0.2585204320809958</v>
       </c>
       <c r="J3" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K3" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L3" t="n">
-        <v>0.035456521983807</v>
+        <v>0.03374948973520542</v>
       </c>
       <c r="M3" t="n">
-        <v>8.154351918269196</v>
+        <v>8.171556431909096</v>
       </c>
       <c r="N3" t="n">
-        <v>110.0791110568661</v>
+        <v>110.4127464068049</v>
       </c>
       <c r="O3" t="n">
-        <v>10.4918592754986</v>
+        <v>10.50774697101167</v>
       </c>
       <c r="P3" t="n">
-        <v>314.7956511320738</v>
+        <v>314.8600541111044</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16603,28 +16632,28 @@
         <v>0.021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4910526160694736</v>
+        <v>0.4948003854753103</v>
       </c>
       <c r="J4" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K4" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03699416561556379</v>
+        <v>0.03768796314159129</v>
       </c>
       <c r="M4" t="n">
-        <v>15.13750268614647</v>
+        <v>15.1205129530403</v>
       </c>
       <c r="N4" t="n">
-        <v>359.0060975854747</v>
+        <v>358.3709482580458</v>
       </c>
       <c r="O4" t="n">
-        <v>18.94745622993954</v>
+        <v>18.9306880027654</v>
       </c>
       <c r="P4" t="n">
-        <v>344.9379085604667</v>
+        <v>344.9012776049358</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16662,7 +16691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E489"/>
+  <dimension ref="A1:E490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16742,7 +16771,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-34.96661624738265,173.6547892721827</t>
+          <t>-34.96661624738266,173.6547892721827</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -29316,6 +29345,29 @@
         </is>
       </c>
       <c r="E489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-34.96677441668849,173.65386343129884</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-34.96631323599577,173.6548310640356</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10449,6 +10449,69 @@
         <v>366.48</v>
       </c>
       <c r="E490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>357.7666666666667</v>
+      </c>
+      <c r="C491" t="n">
+        <v>305.3084615384616</v>
+      </c>
+      <c r="D491" t="n">
+        <v>368.66</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>324.54</v>
+      </c>
+      <c r="C492" t="n">
+        <v>311.9176923076923</v>
+      </c>
+      <c r="D492" t="n">
+        <v>346.65</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>339.62</v>
+      </c>
+      <c r="C493" t="n">
+        <v>306.4223076923077</v>
+      </c>
+      <c r="D493" t="n">
+        <v>352.43</v>
+      </c>
+      <c r="E493" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10465,7 +10528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B583"/>
+  <dimension ref="A1:B586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16303,6 +16366,36 @@
       </c>
       <c r="B583" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -16476,28 +16569,28 @@
         <v>0.0663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3200389181537062</v>
+        <v>0.332373279364827</v>
       </c>
       <c r="J2" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K2" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03979183140489662</v>
+        <v>0.04284965825091291</v>
       </c>
       <c r="M2" t="n">
-        <v>9.323531416555111</v>
+        <v>9.350390174536976</v>
       </c>
       <c r="N2" t="n">
-        <v>142.2450644375871</v>
+        <v>143.1330041207433</v>
       </c>
       <c r="O2" t="n">
-        <v>11.92665353054188</v>
+        <v>11.96382063225387</v>
       </c>
       <c r="P2" t="n">
-        <v>323.009192784268</v>
+        <v>322.8908950699931</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16554,28 +16647,28 @@
         <v>0.0699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2585204320809958</v>
+        <v>0.2422128324173715</v>
       </c>
       <c r="J3" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K3" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03374948973520542</v>
+        <v>0.02979066441714406</v>
       </c>
       <c r="M3" t="n">
-        <v>8.171556431909096</v>
+        <v>8.204442857286654</v>
       </c>
       <c r="N3" t="n">
-        <v>110.4127464068049</v>
+        <v>110.9435042475289</v>
       </c>
       <c r="O3" t="n">
-        <v>10.50774697101167</v>
+        <v>10.53297224184745</v>
       </c>
       <c r="P3" t="n">
-        <v>314.8600541111044</v>
+        <v>315.0200257457876</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16632,28 +16725,28 @@
         <v>0.021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4948003854753103</v>
+        <v>0.492543920221932</v>
       </c>
       <c r="J4" t="n">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="K4" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03768796314159129</v>
+        <v>0.03778676772378065</v>
       </c>
       <c r="M4" t="n">
-        <v>15.1205129530403</v>
+        <v>15.08159520114183</v>
       </c>
       <c r="N4" t="n">
-        <v>358.3709482580458</v>
+        <v>356.5662763360913</v>
       </c>
       <c r="O4" t="n">
-        <v>18.9306880027654</v>
+        <v>18.88296259425653</v>
       </c>
       <c r="P4" t="n">
-        <v>344.9012776049358</v>
+        <v>344.9234250319182</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16691,7 +16784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E490"/>
+  <dimension ref="A1:E493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29373,6 +29466,87 @@
         </is>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-34.96621927900419,173.6530359779346</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-34.96677529196533,173.65386331057195</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-34.966293704214166,173.6548337578825</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-34.966516974083845,173.65299491508955</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-34.96671607638504,173.65387147816952</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-34.966490903527074,173.65480655985894</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-34.96638186448218,173.653013551592</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-34.96676531243092,173.65386468704867</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-34.966439117429616,173.65481370228682</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E493"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10512,6 +10512,88 @@
         <v>352.43</v>
       </c>
       <c r="E493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="n">
+        <v>301.2115384615385</v>
+      </c>
+      <c r="D494" t="n">
+        <v>359.96</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>324.4166666666667</v>
+      </c>
+      <c r="C495" t="n">
+        <v>313.6276923076923</v>
+      </c>
+      <c r="D495" t="n">
+        <v>353.55</v>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>316.5633333333333</v>
+      </c>
+      <c r="C496" t="n">
+        <v>314.3146153846154</v>
+      </c>
+      <c r="D496" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>316.19</v>
+      </c>
+      <c r="C497" t="n">
+        <v>308.4984615384615</v>
+      </c>
+      <c r="D497" t="n">
+        <v>315.07</v>
+      </c>
+      <c r="E497" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10528,7 +10610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B586"/>
+  <dimension ref="A1:B590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16396,6 +16478,46 @@
       </c>
       <c r="B586" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -16569,28 +16691,28 @@
         <v>0.0663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.332373279364827</v>
+        <v>0.3161283278599351</v>
       </c>
       <c r="J2" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K2" t="n">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04284965825091291</v>
+        <v>0.03916752678981139</v>
       </c>
       <c r="M2" t="n">
-        <v>9.350390174536976</v>
+        <v>9.3760525983633</v>
       </c>
       <c r="N2" t="n">
-        <v>143.1330041207433</v>
+        <v>143.294347140424</v>
       </c>
       <c r="O2" t="n">
-        <v>11.96382063225387</v>
+        <v>11.97056168859356</v>
       </c>
       <c r="P2" t="n">
-        <v>322.8908950699931</v>
+        <v>323.0474765403063</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16647,28 +16769,28 @@
         <v>0.0699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2422128324173715</v>
+        <v>0.2236666569656831</v>
       </c>
       <c r="J3" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K3" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02979066441714406</v>
+        <v>0.02561177298331951</v>
       </c>
       <c r="M3" t="n">
-        <v>8.204442857286654</v>
+        <v>8.231129499504947</v>
       </c>
       <c r="N3" t="n">
-        <v>110.9435042475289</v>
+        <v>111.4133566345588</v>
       </c>
       <c r="O3" t="n">
-        <v>10.53297224184745</v>
+        <v>10.55525256138188</v>
       </c>
       <c r="P3" t="n">
-        <v>315.0200257457876</v>
+        <v>315.2025251161356</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16725,28 +16847,28 @@
         <v>0.021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.492543920221932</v>
+        <v>0.4649907273426102</v>
       </c>
       <c r="J4" t="n">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="K4" t="n">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03778676772378065</v>
+        <v>0.03392045745990646</v>
       </c>
       <c r="M4" t="n">
-        <v>15.08159520114183</v>
+        <v>15.12472776533957</v>
       </c>
       <c r="N4" t="n">
-        <v>356.5662763360913</v>
+        <v>358.5806085054316</v>
       </c>
       <c r="O4" t="n">
-        <v>18.88296259425653</v>
+        <v>18.93622476908826</v>
       </c>
       <c r="P4" t="n">
-        <v>344.9234250319182</v>
+        <v>345.1944398153444</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16784,7 +16906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E493"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29547,6 +29669,110 @@
         </is>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-34.96681199845698,173.65385824764454</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-34.96637165214926,173.65482300720183</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-34.96651807909161,173.65299476266875</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-34.96670075559403,173.65387359136247</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-34.9664290827532,173.6548150862857</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-34.966588441207456,173.65298505716387</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-34.96669460108822,173.65387444025177</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-34.96659617803082,173.65479204019138</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-34.96659178609578,173.65298459578122</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-34.96674671107491,173.65386725273197</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-34.96677384554787,173.65476753585608</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E497"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10594,6 +10594,88 @@
         <v>315.07</v>
       </c>
       <c r="E497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>321.8633333333333</v>
+      </c>
+      <c r="C498" t="n">
+        <v>305.5253846153847</v>
+      </c>
+      <c r="D498" t="n">
+        <v>316.28</v>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>313.4766666666667</v>
+      </c>
+      <c r="C499" t="n">
+        <v>304.8261538461539</v>
+      </c>
+      <c r="D499" t="n">
+        <v>312.34</v>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>358.3633333333333</v>
+      </c>
+      <c r="C500" t="n">
+        <v>310.86</v>
+      </c>
+      <c r="D500" t="n">
+        <v>332.24</v>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>333.8833333333333</v>
+      </c>
+      <c r="C501" t="n">
+        <v>298.6753846153846</v>
+      </c>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10610,7 +10692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B590"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16518,6 +16600,46 @@
       </c>
       <c r="B590" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -16691,28 +16813,28 @@
         <v>0.0663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3161283278599351</v>
+        <v>0.3171883553914417</v>
       </c>
       <c r="J2" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03916752678981139</v>
+        <v>0.03945244688970584</v>
       </c>
       <c r="M2" t="n">
-        <v>9.3760525983633</v>
+        <v>9.419911840130251</v>
       </c>
       <c r="N2" t="n">
-        <v>143.294347140424</v>
+        <v>144.598442599179</v>
       </c>
       <c r="O2" t="n">
-        <v>11.97056168859356</v>
+        <v>12.02490925534073</v>
       </c>
       <c r="P2" t="n">
-        <v>323.0474765403063</v>
+        <v>323.0371610144512</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16769,28 +16891,28 @@
         <v>0.0699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2236666569656831</v>
+        <v>0.1990251961189018</v>
       </c>
       <c r="J3" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02561177298331951</v>
+        <v>0.02030370167667073</v>
       </c>
       <c r="M3" t="n">
-        <v>8.231129499504947</v>
+        <v>8.291740786187656</v>
       </c>
       <c r="N3" t="n">
-        <v>111.4133566345588</v>
+        <v>112.7722564622304</v>
       </c>
       <c r="O3" t="n">
-        <v>10.55525256138188</v>
+        <v>10.61942825495941</v>
       </c>
       <c r="P3" t="n">
-        <v>315.2025251161356</v>
+        <v>315.4462519515785</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16847,28 +16969,28 @@
         <v>0.021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4649907273426102</v>
+        <v>0.4202623615814913</v>
       </c>
       <c r="J4" t="n">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03392045745990646</v>
+        <v>0.02753397130886914</v>
       </c>
       <c r="M4" t="n">
-        <v>15.12472776533957</v>
+        <v>15.30132881712204</v>
       </c>
       <c r="N4" t="n">
-        <v>358.5806085054316</v>
+        <v>365.5914117795852</v>
       </c>
       <c r="O4" t="n">
-        <v>18.93622476908826</v>
+        <v>19.1204448635377</v>
       </c>
       <c r="P4" t="n">
-        <v>345.1944398153444</v>
+        <v>345.635406035971</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16906,7 +17028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E497"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29773,6 +29895,110 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-34.96654095573892,173.65299160714554</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-34.96677334843722,173.6538635786427</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-34.96676300451457,173.65476903108063</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-34.966616096266186,173.65298124251717</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-34.96677961321398,173.65386271454224</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-34.96679830506919,173.65476416233165</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-34.966213933155316,173.6530367153166</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-34.96672555280769,173.65387017108847</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-34.96662001038613,173.65478875318092</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-34.96643326227778,173.65300646198327</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-34.96683472119487,173.6538551134945</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:E502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10676,6 +10676,27 @@
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>312.6266666666667</v>
+      </c>
+      <c r="C502" t="n">
+        <v>303.8238461538461</v>
+      </c>
+      <c r="D502" t="n">
+        <v>344.63</v>
+      </c>
+      <c r="E502" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10692,7 +10713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B594"/>
+  <dimension ref="A1:B595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16640,6 +16661,16 @@
       </c>
       <c r="B594" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -16813,28 +16844,28 @@
         <v>0.0663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3171883553914417</v>
+        <v>0.3092017950148093</v>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K2" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03945244688970584</v>
+        <v>0.03753922443979851</v>
       </c>
       <c r="M2" t="n">
-        <v>9.419911840130251</v>
+        <v>9.443017086616504</v>
       </c>
       <c r="N2" t="n">
-        <v>144.598442599179</v>
+        <v>145.059968590689</v>
       </c>
       <c r="O2" t="n">
-        <v>12.02490925534073</v>
+        <v>12.04408438158289</v>
       </c>
       <c r="P2" t="n">
-        <v>323.0371610144512</v>
+        <v>323.114890002097</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16891,28 +16922,28 @@
         <v>0.0699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1990251961189018</v>
+        <v>0.1925305143293726</v>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K3" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02030370167667073</v>
+        <v>0.01900273072942615</v>
       </c>
       <c r="M3" t="n">
-        <v>8.291740786187656</v>
+        <v>8.308728134263497</v>
       </c>
       <c r="N3" t="n">
-        <v>112.7722564622304</v>
+        <v>113.1328159947805</v>
       </c>
       <c r="O3" t="n">
-        <v>10.61942825495941</v>
+        <v>10.63639111704626</v>
       </c>
       <c r="P3" t="n">
-        <v>315.4462519515785</v>
+        <v>315.5109206955827</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16969,28 +17000,28 @@
         <v>0.021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4202623615814913</v>
+        <v>0.4153968536602589</v>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K4" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02753397130886914</v>
+        <v>0.02700996036234726</v>
       </c>
       <c r="M4" t="n">
-        <v>15.30132881712204</v>
+        <v>15.29750494412513</v>
       </c>
       <c r="N4" t="n">
-        <v>365.5914117795852</v>
+        <v>365.1014543304145</v>
       </c>
       <c r="O4" t="n">
-        <v>19.1204448635377</v>
+        <v>19.10762817124131</v>
       </c>
       <c r="P4" t="n">
-        <v>345.635406035971</v>
+        <v>345.6837133076605</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17028,7 +17059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:E502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29999,6 +30030,33 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-34.96662371186008,173.65298019204707</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-34.96678859341653,173.6538614759029</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-34.966509001782406,173.65480406371432</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E502"/>
+  <dimension ref="A1:E504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10697,6 +10697,44 @@
         <v>344.63</v>
       </c>
       <c r="E502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="n">
+        <v>295.6715384615384</v>
+      </c>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>326.0466666666667</v>
+      </c>
+      <c r="C504" t="n">
+        <v>311.1084615384615</v>
+      </c>
+      <c r="D504" t="n">
+        <v>353.42</v>
+      </c>
+      <c r="E504" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10713,7 +10751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B595"/>
+  <dimension ref="A1:B597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16671,6 +16709,26 @@
       </c>
       <c r="B595" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -17059,7 +17117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E502"/>
+  <dimension ref="A1:E504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30057,6 +30115,52 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-34.96686163423425,173.65385140137354</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr"/>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-34.966503475069935,173.6529967770946</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-34.966723326709875,173.6538704781337</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-34.966430247492426,173.654814925643</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -16902,28 +16902,28 @@
         <v>0.0663</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3092017950148093</v>
+        <v>0.3070002728622187</v>
       </c>
       <c r="J2" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K2" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03753922443979851</v>
+        <v>0.03718143682166553</v>
       </c>
       <c r="M2" t="n">
-        <v>9.443017086616504</v>
+        <v>9.433798155268676</v>
       </c>
       <c r="N2" t="n">
-        <v>145.059968590689</v>
+        <v>144.7913110310118</v>
       </c>
       <c r="O2" t="n">
-        <v>12.04408438158289</v>
+        <v>12.03292612089893</v>
       </c>
       <c r="P2" t="n">
-        <v>323.114890002097</v>
+        <v>323.1363622816183</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16980,28 +16980,28 @@
         <v>0.0699</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1925305143293726</v>
+        <v>0.1794102847779673</v>
       </c>
       <c r="J3" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K3" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01900273072942615</v>
+        <v>0.01646237996489597</v>
       </c>
       <c r="M3" t="n">
-        <v>8.308728134263497</v>
+        <v>8.3440601554181</v>
       </c>
       <c r="N3" t="n">
-        <v>113.1328159947805</v>
+        <v>114.1431920993017</v>
       </c>
       <c r="O3" t="n">
-        <v>10.63639111704626</v>
+        <v>10.68378173210693</v>
       </c>
       <c r="P3" t="n">
-        <v>315.5109206955827</v>
+        <v>315.6417638775558</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17058,28 +17058,28 @@
         <v>0.021</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4153968536602589</v>
+        <v>0.4141220152398544</v>
       </c>
       <c r="J4" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K4" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02700996036234726</v>
+        <v>0.02696243425681433</v>
       </c>
       <c r="M4" t="n">
-        <v>15.29750494412513</v>
+        <v>15.27167319578566</v>
       </c>
       <c r="N4" t="n">
-        <v>365.1014543304145</v>
+        <v>364.3207433889282</v>
       </c>
       <c r="O4" t="n">
-        <v>19.10762817124131</v>
+        <v>19.08718793821993</v>
       </c>
       <c r="P4" t="n">
-        <v>345.6837133076605</v>
+        <v>345.6963985262191</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">

--- a/data/nzd0038/nzd0038.xlsx
+++ b/data/nzd0038/nzd0038.xlsx
@@ -16893,13 +16893,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.056</v>
+        <v>0.0595</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0663</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="I2" t="n">
         <v>0.3070234929869159</v>
@@ -16971,13 +16971,13 @@
         <v>0.5000000000002721</v>
       </c>
       <c r="F3" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0578</v>
+        <v>0.0713</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0699</v>
+        <v>0.1076</v>
       </c>
       <c r="I3" t="n">
         <v>0.179385909835877</v>
@@ -17049,13 +17049,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0199</v>
+        <v>0.0244</v>
       </c>
       <c r="H4" t="n">
-        <v>0.021</v>
+        <v>0.0302</v>
       </c>
       <c r="I4" t="n">
         <v>0.4141220152398544</v>
